--- a/demographic_tablev1.xlsx
+++ b/demographic_tablev1.xlsx
@@ -1,74 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolek/Desktop/GitHub/2024_CHAI_GO_Nigeria_ComicBook/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3443A45D-6342-2141-B202-D7F5EF1C0B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="22320" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>mean_age</t>
-  </si>
-  <si>
-    <t>pct_christian</t>
-  </si>
-  <si>
-    <t>pct_muslim</t>
-  </si>
-  <si>
-    <t>n_students_pre</t>
-  </si>
-  <si>
-    <t>n_students_post</t>
-  </si>
-  <si>
-    <t>n_schools</t>
-  </si>
-  <si>
-    <t>pct_base_vaxed</t>
-  </si>
-  <si>
-    <t>pct_parent_college</t>
-  </si>
-  <si>
-    <t>FCT</t>
-  </si>
-  <si>
-    <t>Kaduna</t>
-  </si>
-  <si>
-    <t>Lagos</t>
-  </si>
-  <si>
-    <t>Rivers</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -202,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,64 +350,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_age</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct_christian</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pct_muslim</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>n_students_pre</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>n_students_post</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>n_schools</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pct_base_vaxed</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pct_parent_college</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FCT</t>
+        </is>
       </c>
       <c r="B2">
-        <v>12.322222222222219</v>
+        <v>12.32222222222222</v>
       </c>
       <c r="C2">
-        <v>0.71111111111111114</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="D2">
-        <v>0.28888888888888892</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="E2">
         <v>90</v>
@@ -488,18 +435,20 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kaduna</t>
+        </is>
       </c>
       <c r="B3">
-        <v>12.969387755102041</v>
+        <v>12.96938775510204</v>
       </c>
       <c r="C3">
-        <v>0.15306122448979589</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="D3">
-        <v>0.84693877551020413</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="E3">
         <v>98</v>
@@ -514,12 +463,14 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="I3">
-        <v>0.73958333333333337</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lagos</t>
+        </is>
       </c>
       <c r="B4">
         <v>12.3125</v>
@@ -546,18 +497,20 @@
         <v>0.5957446808510638</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rivers</t>
+        </is>
       </c>
       <c r="B5">
-        <v>12.357142857142859</v>
+        <v>12.35714285714286</v>
       </c>
       <c r="C5">
         <v>0.9642857142857143</v>
       </c>
       <c r="D5">
-        <v>8.9285714285714281E-3</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="E5">
         <v>112</v>
@@ -569,24 +522,26 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>8.6538461538461536E-2</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="I5">
-        <v>0.44660194174757278</v>
+        <v>0.4466019417475728</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
       </c>
       <c r="B6">
         <v>12.48989898989899</v>
       </c>
       <c r="C6">
-        <v>0.62886597938144329</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="D6">
-        <v>0.38402061855670111</v>
+        <v>0.3762626262626262</v>
       </c>
       <c r="E6">
         <v>396</v>
@@ -598,14 +553,13 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>0.14473684210526319</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="I6">
-        <v>0.62599469496021221</v>
+        <v>0.6259946949602122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>